--- a/natmiOut/OldD4/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.75612563521695</v>
+        <v>9.069328666666667</v>
       </c>
       <c r="H2">
-        <v>6.75612563521695</v>
+        <v>27.207986</v>
       </c>
       <c r="I2">
-        <v>0.04393214760457359</v>
+        <v>0.05418223520138252</v>
       </c>
       <c r="J2">
-        <v>0.04393214760457359</v>
+        <v>0.05546404997331413</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.03533045753573</v>
+        <v>3.062569</v>
       </c>
       <c r="N2">
-        <v>3.03533045753573</v>
+        <v>9.187707</v>
       </c>
       <c r="O2">
-        <v>0.2514573782857693</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="P2">
-        <v>0.2514573782857693</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="Q2">
-        <v>20.50707391551194</v>
+        <v>27.77544482534467</v>
       </c>
       <c r="R2">
-        <v>20.50707391551194</v>
+        <v>249.979003428102</v>
       </c>
       <c r="S2">
-        <v>0.01104706265910951</v>
+        <v>0.01332924918283127</v>
       </c>
       <c r="T2">
-        <v>0.01104706265910951</v>
+        <v>0.01492312192342253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.75612563521695</v>
+        <v>9.069328666666667</v>
       </c>
       <c r="H3">
-        <v>6.75612563521695</v>
+        <v>27.207986</v>
       </c>
       <c r="I3">
-        <v>0.04393214760457359</v>
+        <v>0.05418223520138252</v>
       </c>
       <c r="J3">
-        <v>0.04393214760457359</v>
+        <v>0.05546404997331413</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.89880084844348</v>
+        <v>6.147102</v>
       </c>
       <c r="N3">
-        <v>5.89880084844348</v>
+        <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4886772683010276</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="P3">
-        <v>0.4886772683010276</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="Q3">
-        <v>39.8530396292085</v>
+        <v>55.75008838552401</v>
       </c>
       <c r="R3">
-        <v>39.8530396292085</v>
+        <v>501.7507954697161</v>
       </c>
       <c r="S3">
-        <v>0.02146864188200056</v>
+        <v>0.02675409249890549</v>
       </c>
       <c r="T3">
-        <v>0.02146864188200056</v>
+        <v>0.02995326884772701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.75612563521695</v>
+        <v>9.069328666666667</v>
       </c>
       <c r="H4">
-        <v>6.75612563521695</v>
+        <v>27.207986</v>
       </c>
       <c r="I4">
-        <v>0.04393214760457359</v>
+        <v>0.05418223520138252</v>
       </c>
       <c r="J4">
-        <v>0.04393214760457359</v>
+        <v>0.05546404997331413</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.13682273890955</v>
+        <v>0.01759833333333333</v>
       </c>
       <c r="N4">
-        <v>3.13682273890955</v>
+        <v>0.052795</v>
       </c>
       <c r="O4">
-        <v>0.259865353413203</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="P4">
-        <v>0.259865353413203</v>
+        <v>0.001546086421706485</v>
       </c>
       <c r="Q4">
-        <v>21.19276851947826</v>
+        <v>0.1596050689855556</v>
       </c>
       <c r="R4">
-        <v>21.19276851947826</v>
+        <v>1.43644562087</v>
       </c>
       <c r="S4">
-        <v>0.01141644306346352</v>
+        <v>7.659339926791058E-05</v>
       </c>
       <c r="T4">
-        <v>0.01141644306346352</v>
+        <v>8.575221455659093E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.496830000438</v>
+        <v>9.069328666666667</v>
       </c>
       <c r="H5">
-        <v>126.496830000438</v>
+        <v>27.207986</v>
       </c>
       <c r="I5">
-        <v>0.8225538877077797</v>
+        <v>0.05418223520138252</v>
       </c>
       <c r="J5">
-        <v>0.8225538877077797</v>
+        <v>0.05546404997331413</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.03533045753573</v>
+        <v>0.022088</v>
       </c>
       <c r="N5">
-        <v>3.03533045753573</v>
+        <v>0.066264</v>
       </c>
       <c r="O5">
-        <v>0.2514573782857693</v>
+        <v>0.001774268250568265</v>
       </c>
       <c r="P5">
-        <v>0.2514573782857693</v>
+        <v>0.00194052222081558</v>
       </c>
       <c r="Q5">
-        <v>383.9596808820489</v>
+        <v>0.2003233315893334</v>
       </c>
       <c r="R5">
-        <v>383.9596808820489</v>
+        <v>1.802909984304</v>
       </c>
       <c r="S5">
-        <v>0.2068372441017653</v>
+        <v>9.613381966263522E-05</v>
       </c>
       <c r="T5">
-        <v>0.2068372441017653</v>
+        <v>0.0001076292214296418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.496830000438</v>
+        <v>9.069328666666667</v>
       </c>
       <c r="H6">
-        <v>126.496830000438</v>
+        <v>27.207986</v>
       </c>
       <c r="I6">
-        <v>0.8225538877077797</v>
+        <v>0.05418223520138252</v>
       </c>
       <c r="J6">
-        <v>0.8225538877077797</v>
+        <v>0.05546404997331413</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.89880084844348</v>
+        <v>3.1997185</v>
       </c>
       <c r="N6">
-        <v>5.89880084844348</v>
+        <v>6.399437000000001</v>
       </c>
       <c r="O6">
-        <v>0.4886772683010276</v>
+        <v>0.2570245810080548</v>
       </c>
       <c r="P6">
-        <v>0.4886772683010276</v>
+        <v>0.1874056757697904</v>
       </c>
       <c r="Q6">
-        <v>746.1796081319943</v>
+        <v>29.01929871731367</v>
       </c>
       <c r="R6">
-        <v>746.1796081319943</v>
+        <v>174.115792303882</v>
       </c>
       <c r="S6">
-        <v>0.401963386875428</v>
+        <v>0.01392616630071522</v>
       </c>
       <c r="T6">
-        <v>0.401963386875428</v>
+        <v>0.01039427776617836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>126.496830000438</v>
+        <v>134.993169</v>
       </c>
       <c r="H7">
-        <v>126.496830000438</v>
+        <v>404.979507</v>
       </c>
       <c r="I7">
-        <v>0.8225538877077797</v>
+        <v>0.8064799393830157</v>
       </c>
       <c r="J7">
-        <v>0.8225538877077797</v>
+        <v>0.8255592168569963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.13682273890955</v>
+        <v>3.062569</v>
       </c>
       <c r="N7">
-        <v>3.13682273890955</v>
+        <v>9.187707</v>
       </c>
       <c r="O7">
-        <v>0.259865353413203</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="P7">
-        <v>0.259865353413203</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="Q7">
-        <v>396.7981327453496</v>
+        <v>413.425894591161</v>
       </c>
       <c r="R7">
-        <v>396.7981327453496</v>
+        <v>3720.833051320449</v>
       </c>
       <c r="S7">
-        <v>0.2137532567305863</v>
+        <v>0.1984003065402621</v>
       </c>
       <c r="T7">
-        <v>0.2137532567305863</v>
+        <v>0.2221244365330292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.7903749787689</v>
+        <v>134.993169</v>
       </c>
       <c r="H8">
-        <v>3.7903749787689</v>
+        <v>404.979507</v>
       </c>
       <c r="I8">
-        <v>0.02464716052288311</v>
+        <v>0.8064799393830157</v>
       </c>
       <c r="J8">
-        <v>0.02464716052288311</v>
+        <v>0.8255592168569963</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.03533045753573</v>
+        <v>6.147102</v>
       </c>
       <c r="N8">
-        <v>3.03533045753573</v>
+        <v>18.441306</v>
       </c>
       <c r="O8">
-        <v>0.2514573782857693</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="P8">
-        <v>0.2514573782857693</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="Q8">
-        <v>11.50504061853859</v>
+        <v>829.816779146238</v>
       </c>
       <c r="R8">
-        <v>11.50504061853859</v>
+        <v>7468.351012316142</v>
       </c>
       <c r="S8">
-        <v>0.006197710367272697</v>
+        <v>0.3982234918247584</v>
       </c>
       <c r="T8">
-        <v>0.006197710367272697</v>
+        <v>0.4458418955004954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.7903749787689</v>
+        <v>134.993169</v>
       </c>
       <c r="H9">
-        <v>3.7903749787689</v>
+        <v>404.979507</v>
       </c>
       <c r="I9">
-        <v>0.02464716052288311</v>
+        <v>0.8064799393830157</v>
       </c>
       <c r="J9">
-        <v>0.02464716052288311</v>
+        <v>0.8255592168569963</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>5.89880084844348</v>
+        <v>0.01759833333333333</v>
       </c>
       <c r="N9">
-        <v>5.89880084844348</v>
+        <v>0.052795</v>
       </c>
       <c r="O9">
-        <v>0.4886772683010276</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="P9">
-        <v>0.4886772683010276</v>
+        <v>0.001546086421706485</v>
       </c>
       <c r="Q9">
-        <v>22.35866714068093</v>
+        <v>2.375654785785</v>
       </c>
       <c r="R9">
-        <v>22.35866714068093</v>
+        <v>21.380893072065</v>
       </c>
       <c r="S9">
-        <v>0.01204450707569945</v>
+        <v>0.001140060755506585</v>
       </c>
       <c r="T9">
-        <v>0.01204450707569945</v>
+        <v>0.001276385895497242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.7903749787689</v>
+        <v>134.993169</v>
       </c>
       <c r="H10">
-        <v>3.7903749787689</v>
+        <v>404.979507</v>
       </c>
       <c r="I10">
-        <v>0.02464716052288311</v>
+        <v>0.8064799393830157</v>
       </c>
       <c r="J10">
-        <v>0.02464716052288311</v>
+        <v>0.8255592168569963</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.13682273890955</v>
+        <v>0.022088</v>
       </c>
       <c r="N10">
-        <v>3.13682273890955</v>
+        <v>0.066264</v>
       </c>
       <c r="O10">
-        <v>0.259865353413203</v>
+        <v>0.001774268250568265</v>
       </c>
       <c r="P10">
-        <v>0.259865353413203</v>
+        <v>0.00194052222081558</v>
       </c>
       <c r="Q10">
-        <v>11.88973442239609</v>
+        <v>2.981729116872</v>
       </c>
       <c r="R10">
-        <v>11.88973442239609</v>
+        <v>26.835562051848</v>
       </c>
       <c r="S10">
-        <v>0.006404943079910966</v>
+        <v>0.001430911751167503</v>
       </c>
       <c r="T10">
-        <v>0.006404943079910966</v>
+        <v>0.001602016004910109</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.32195624800549</v>
+        <v>134.993169</v>
       </c>
       <c r="H11">
-        <v>5.32195624800549</v>
+        <v>404.979507</v>
       </c>
       <c r="I11">
-        <v>0.03460636762195912</v>
+        <v>0.8064799393830157</v>
       </c>
       <c r="J11">
-        <v>0.03460636762195912</v>
+        <v>0.8255592168569963</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.03533045753573</v>
+        <v>3.1997185</v>
       </c>
       <c r="N11">
-        <v>3.03533045753573</v>
+        <v>6.399437000000001</v>
       </c>
       <c r="O11">
-        <v>0.2514573782857693</v>
+        <v>0.2570245810080548</v>
       </c>
       <c r="P11">
-        <v>0.2514573782857693</v>
+        <v>0.1874056757697904</v>
       </c>
       <c r="Q11">
-        <v>16.15389589324364</v>
+        <v>431.9401402229265</v>
       </c>
       <c r="R11">
-        <v>16.15389589324364</v>
+        <v>2591.640841337559</v>
       </c>
       <c r="S11">
-        <v>0.008702026474211371</v>
+        <v>0.207285168511321</v>
       </c>
       <c r="T11">
-        <v>0.008702026474211371</v>
+        <v>0.1547144829230644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.32195624800549</v>
+        <v>4.313620333333334</v>
       </c>
       <c r="H12">
-        <v>5.32195624800549</v>
+        <v>12.940861</v>
       </c>
       <c r="I12">
-        <v>0.03460636762195912</v>
+        <v>0.02577055039687239</v>
       </c>
       <c r="J12">
-        <v>0.03460636762195912</v>
+        <v>0.02638021649973327</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.89880084844348</v>
+        <v>3.062569</v>
       </c>
       <c r="N12">
-        <v>5.89880084844348</v>
+        <v>9.187707</v>
       </c>
       <c r="O12">
-        <v>0.4886772683010276</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="P12">
-        <v>0.4886772683010276</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="Q12">
-        <v>31.39316003111387</v>
+        <v>13.21075991063633</v>
       </c>
       <c r="R12">
-        <v>31.39316003111387</v>
+        <v>118.896839195727</v>
       </c>
       <c r="S12">
-        <v>0.01691134519532012</v>
+        <v>0.006339754839236651</v>
       </c>
       <c r="T12">
-        <v>0.01691134519532012</v>
+        <v>0.007097844232096545</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.32195624800549</v>
+        <v>4.313620333333334</v>
       </c>
       <c r="H13">
-        <v>5.32195624800549</v>
+        <v>12.940861</v>
       </c>
       <c r="I13">
-        <v>0.03460636762195912</v>
+        <v>0.02577055039687239</v>
       </c>
       <c r="J13">
-        <v>0.03460636762195912</v>
+        <v>0.02638021649973327</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.13682273890955</v>
+        <v>6.147102</v>
       </c>
       <c r="N13">
-        <v>3.13682273890955</v>
+        <v>18.441306</v>
       </c>
       <c r="O13">
-        <v>0.259865353413203</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="P13">
-        <v>0.259865353413203</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="Q13">
-        <v>16.69403337422537</v>
+        <v>26.516264178274</v>
       </c>
       <c r="R13">
-        <v>16.69403337422537</v>
+        <v>238.646377604466</v>
       </c>
       <c r="S13">
-        <v>0.008992995952427632</v>
+        <v>0.01272497685824591</v>
       </c>
       <c r="T13">
-        <v>0.008992995952427632</v>
+        <v>0.01424659247671126</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.4201755745037</v>
+        <v>4.313620333333334</v>
       </c>
       <c r="H14">
-        <v>11.4201755745037</v>
+        <v>12.940861</v>
       </c>
       <c r="I14">
-        <v>0.07426043654280443</v>
+        <v>0.02577055039687239</v>
       </c>
       <c r="J14">
-        <v>0.07426043654280443</v>
+        <v>0.02638021649973327</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.03533045753573</v>
+        <v>0.01759833333333333</v>
       </c>
       <c r="N14">
-        <v>3.03533045753573</v>
+        <v>0.052795</v>
       </c>
       <c r="O14">
-        <v>0.2514573782857693</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="P14">
-        <v>0.2514573782857693</v>
+        <v>0.001546086421706485</v>
       </c>
       <c r="Q14">
-        <v>34.66400675169668</v>
+        <v>0.07591252849944445</v>
       </c>
       <c r="R14">
-        <v>34.66400675169668</v>
+        <v>0.683212756495</v>
       </c>
       <c r="S14">
-        <v>0.01867333468341034</v>
+        <v>3.64299119179028E-05</v>
       </c>
       <c r="T14">
-        <v>0.01867333468341034</v>
+        <v>4.0786094531915E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.4201755745037</v>
+        <v>4.313620333333334</v>
       </c>
       <c r="H15">
-        <v>11.4201755745037</v>
+        <v>12.940861</v>
       </c>
       <c r="I15">
-        <v>0.07426043654280443</v>
+        <v>0.02577055039687239</v>
       </c>
       <c r="J15">
-        <v>0.07426043654280443</v>
+        <v>0.02638021649973327</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>5.89880084844348</v>
+        <v>0.022088</v>
       </c>
       <c r="N15">
-        <v>5.89880084844348</v>
+        <v>0.066264</v>
       </c>
       <c r="O15">
-        <v>0.4886772683010276</v>
+        <v>0.001774268250568265</v>
       </c>
       <c r="P15">
-        <v>0.4886772683010276</v>
+        <v>0.00194052222081558</v>
       </c>
       <c r="Q15">
-        <v>67.36534136825594</v>
+        <v>0.09527924592266668</v>
       </c>
       <c r="R15">
-        <v>67.36534136825594</v>
+        <v>0.857513213304</v>
       </c>
       <c r="S15">
-        <v>0.03628938727257948</v>
+        <v>4.572386936884007E-05</v>
       </c>
       <c r="T15">
-        <v>0.03628938727257948</v>
+        <v>5.119139630765821E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.4201755745037</v>
+        <v>4.313620333333334</v>
       </c>
       <c r="H16">
-        <v>11.4201755745037</v>
+        <v>12.940861</v>
       </c>
       <c r="I16">
-        <v>0.07426043654280443</v>
+        <v>0.02577055039687239</v>
       </c>
       <c r="J16">
-        <v>0.07426043654280443</v>
+        <v>0.02638021649973327</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.13682273890955</v>
+        <v>3.1997185</v>
       </c>
       <c r="N16">
-        <v>3.13682273890955</v>
+        <v>6.399437000000001</v>
       </c>
       <c r="O16">
-        <v>0.259865353413203</v>
+        <v>0.2570245810080548</v>
       </c>
       <c r="P16">
-        <v>0.259865353413203</v>
+        <v>0.1874056757697904</v>
       </c>
       <c r="Q16">
-        <v>35.82306642444264</v>
+        <v>13.80237078254284</v>
       </c>
       <c r="R16">
-        <v>35.82306642444264</v>
+        <v>82.81422469525701</v>
       </c>
       <c r="S16">
-        <v>0.01929771458681461</v>
+        <v>0.006623664918103084</v>
       </c>
       <c r="T16">
-        <v>0.01929771458681461</v>
+        <v>0.004943802300085889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.404317666666667</v>
+      </c>
+      <c r="H17">
+        <v>22.212953</v>
+      </c>
+      <c r="I17">
+        <v>0.04423508024310419</v>
+      </c>
+      <c r="J17">
+        <v>0.04528157046415997</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.062569</v>
+      </c>
+      <c r="N17">
+        <v>9.187707</v>
+      </c>
+      <c r="O17">
+        <v>0.2460077391286943</v>
+      </c>
+      <c r="P17">
+        <v>0.2690593624267</v>
+      </c>
+      <c r="Q17">
+        <v>22.67623375208566</v>
+      </c>
+      <c r="R17">
+        <v>204.086103768771</v>
+      </c>
+      <c r="S17">
+        <v>0.01088217208078244</v>
+      </c>
+      <c r="T17">
+        <v>0.01218343047876657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.404317666666667</v>
+      </c>
+      <c r="H18">
+        <v>22.212953</v>
+      </c>
+      <c r="I18">
+        <v>0.04423508024310419</v>
+      </c>
+      <c r="J18">
+        <v>0.04528157046415997</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.147102</v>
+      </c>
+      <c r="N18">
+        <v>18.441306</v>
+      </c>
+      <c r="O18">
+        <v>0.4937797859292232</v>
+      </c>
+      <c r="P18">
+        <v>0.5400483531609875</v>
+      </c>
+      <c r="Q18">
+        <v>45.515095937402</v>
+      </c>
+      <c r="R18">
+        <v>409.635863436618</v>
+      </c>
+      <c r="S18">
+        <v>0.021842388453002</v>
+      </c>
+      <c r="T18">
+        <v>0.0244542375577128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.404317666666667</v>
+      </c>
+      <c r="H19">
+        <v>22.212953</v>
+      </c>
+      <c r="I19">
+        <v>0.04423508024310419</v>
+      </c>
+      <c r="J19">
+        <v>0.04528157046415997</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.01759833333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.052795</v>
+      </c>
+      <c r="O19">
+        <v>0.001413625683459368</v>
+      </c>
+      <c r="P19">
+        <v>0.001546086421706485</v>
+      </c>
+      <c r="Q19">
+        <v>0.1303036504038889</v>
+      </c>
+      <c r="R19">
+        <v>1.172732853635</v>
+      </c>
+      <c r="S19">
+        <v>6.253184554153813E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.000922124818316E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.404317666666667</v>
+      </c>
+      <c r="H20">
+        <v>22.212953</v>
+      </c>
+      <c r="I20">
+        <v>0.04423508024310419</v>
+      </c>
+      <c r="J20">
+        <v>0.04528157046415997</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.022088</v>
+      </c>
+      <c r="N20">
+        <v>0.066264</v>
+      </c>
+      <c r="O20">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="P20">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="Q20">
+        <v>0.1635465686213333</v>
+      </c>
+      <c r="R20">
+        <v>1.471919117592</v>
+      </c>
+      <c r="S20">
+        <v>7.848489843667929E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.786989367912886E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.404317666666667</v>
+      </c>
+      <c r="H21">
+        <v>22.212953</v>
+      </c>
+      <c r="I21">
+        <v>0.04423508024310419</v>
+      </c>
+      <c r="J21">
+        <v>0.04528157046415997</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.1997185</v>
+      </c>
+      <c r="N21">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="P21">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="Q21">
+        <v>23.69173221791017</v>
+      </c>
+      <c r="R21">
+        <v>142.150393307461</v>
+      </c>
+      <c r="S21">
+        <v>0.01136950296534154</v>
+      </c>
+      <c r="T21">
+        <v>0.008486023312753282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.6052145</v>
+      </c>
+      <c r="H22">
+        <v>23.210429</v>
+      </c>
+      <c r="I22">
+        <v>0.06933219477562523</v>
+      </c>
+      <c r="J22">
+        <v>0.04731494620579632</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.062569</v>
+      </c>
+      <c r="N22">
+        <v>9.187707</v>
+      </c>
+      <c r="O22">
+        <v>0.2460077391286943</v>
+      </c>
+      <c r="P22">
+        <v>0.2690593624267</v>
+      </c>
+      <c r="Q22">
+        <v>35.5417701660505</v>
+      </c>
+      <c r="R22">
+        <v>213.250620996303</v>
+      </c>
+      <c r="S22">
+        <v>0.01705625648558183</v>
+      </c>
+      <c r="T22">
+        <v>0.01273052925938517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.6052145</v>
+      </c>
+      <c r="H23">
+        <v>23.210429</v>
+      </c>
+      <c r="I23">
+        <v>0.06933219477562523</v>
+      </c>
+      <c r="J23">
+        <v>0.04731494620579632</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.147102</v>
+      </c>
+      <c r="N23">
+        <v>18.441306</v>
+      </c>
+      <c r="O23">
+        <v>0.4937797859292232</v>
+      </c>
+      <c r="P23">
+        <v>0.5400483531609875</v>
+      </c>
+      <c r="Q23">
+        <v>71.33843726337899</v>
+      </c>
+      <c r="R23">
+        <v>428.030623580274</v>
+      </c>
+      <c r="S23">
+        <v>0.03423483629431143</v>
+      </c>
+      <c r="T23">
+        <v>0.02555235877834102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.6052145</v>
+      </c>
+      <c r="H24">
+        <v>23.210429</v>
+      </c>
+      <c r="I24">
+        <v>0.06933219477562523</v>
+      </c>
+      <c r="J24">
+        <v>0.04731494620579632</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.01759833333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.052795</v>
+      </c>
+      <c r="O24">
+        <v>0.001413625683459368</v>
+      </c>
+      <c r="P24">
+        <v>0.001546086421706485</v>
+      </c>
+      <c r="Q24">
+        <v>0.2042324331758333</v>
+      </c>
+      <c r="R24">
+        <v>1.225394599055</v>
+      </c>
+      <c r="S24">
+        <v>9.800977122543122E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.315299587255449E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.6052145</v>
+      </c>
+      <c r="H25">
+        <v>23.210429</v>
+      </c>
+      <c r="I25">
+        <v>0.06933219477562523</v>
+      </c>
+      <c r="J25">
+        <v>0.04731494620579632</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.022088</v>
+      </c>
+      <c r="N25">
+        <v>0.066264</v>
+      </c>
+      <c r="O25">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="P25">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="Q25">
+        <v>0.256335977876</v>
+      </c>
+      <c r="R25">
+        <v>1.538015867256</v>
+      </c>
+      <c r="S25">
+        <v>0.0001230139119326068</v>
+      </c>
+      <c r="T25">
+        <v>9.181570448904157E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.6052145</v>
+      </c>
+      <c r="H26">
+        <v>23.210429</v>
+      </c>
+      <c r="I26">
+        <v>0.06933219477562523</v>
+      </c>
+      <c r="J26">
+        <v>0.04731494620579632</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.1997185</v>
+      </c>
+      <c r="N26">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="P26">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="Q26">
+        <v>37.13341953211825</v>
+      </c>
+      <c r="R26">
+        <v>148.533678128473</v>
+      </c>
+      <c r="S26">
+        <v>0.01782007831257392</v>
+      </c>
+      <c r="T26">
+        <v>0.008867089467708542</v>
       </c>
     </row>
   </sheetData>
